--- a/medicine/Mort/Peine_de_mort_au_Kentucky/Peine_de_mort_au_Kentucky.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Kentucky/Peine_de_mort_au_Kentucky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Kentucky, la pendaison fut en usage jusqu'en 1910, avant d'être remplacée par la chaise électrique, ceci jusqu'en 1998. L'injection létale devint depuis cette date un mode d'exécution légale. Cependant, toutes les personnes condamnés avant le 31 mars 1998 peuvent choisir entre les deux méthodes.
 L'État compte 30 détenus dans le couloir de la mort dont Virginia Caudill, ayant tué une femme de 73 ans durant un cambriolage. Les deux condamnés exécutés par injection étaient volontaires. Le gouverneur a seul le pouvoir de gracier et de fixer les dates d'exécutions, qui ont lieu à Eddyville.
@@ -513,10 +525,12 @@
           <t>Exécutions depuis 1975</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les exécutions ont lieu à Eddyville, au Kentucky State Penitentiary (en).
-En décembre 2018 le couloir de la mort du Kentucky compte 30 condamnés dont une femme[1]. Depuis 1975, trois condamnés ont été graciés dans le Kentucky[2].
+En décembre 2018 le couloir de la mort du Kentucky compte 30 condamnés dont une femme. Depuis 1975, trois condamnés ont été graciés dans le Kentucky.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Crimes capitaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« K.R.S. 507.020 - Meurtre »
 « K.R.S. 509.040 - Enlèvement capital »[Note 1]</t>
